--- a/WIP/Documents/Report 5/Test Result/DDL_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/Test Result/DDL_Integration Test Case_v1.0_EN.xlsx
@@ -36,7 +36,7 @@
     <definedName name="Statistic" comment="fsfsdfs" localSheetId="3">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="605">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -5945,7 +5945,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="D12" s="76">
         <f>Admin_Function!A6</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="76">
         <f>Admin_Function!B6</f>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="F12" s="76">
         <f>Admin_Function!C6</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="76">
         <f>Admin_Function!D6</f>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -6200,7 +6200,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>100.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6217,7 +6217,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>99.666666666666671</v>
+        <v>99.333333333333329</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6896,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -19836,8 +19836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -20069,7 +20069,7 @@
     <row r="6" spans="1:17" s="137" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G309,"Pass")</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G756,"Fail")</f>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G756,"N/A")</f>
@@ -20748,12 +20748,8 @@
       <c r="D27" s="198"/>
       <c r="E27" s="198"/>
       <c r="F27" s="198"/>
-      <c r="G27" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="196" t="s">
-        <v>601</v>
-      </c>
+      <c r="G27" s="198"/>
+      <c r="H27" s="198"/>
       <c r="I27" s="200"/>
       <c r="J27" s="200"/>
       <c r="K27" s="200"/>
@@ -22258,7 +22254,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F26:G26 F52:G66 F44:G46 F48:G50 F68:G75 G27:G33 F28:F33 F12:G20 F35:G42 F22:G24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F26:G26 F52:G66 F44:G46 F48:G50 F68:G75 F22:G24 F12:G20 F35:G42 F28:G33">
       <formula1>$Q$2:$Q$6</formula1>
     </dataValidation>
   </dataValidations>
